--- a/storage/30-04-2024/PALMARES PRODUIT DEPUIS.xlsx
+++ b/storage/30-04-2024/PALMARES PRODUIT DEPUIS.xlsx
@@ -450,8 +450,8 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="44.4" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="15.6" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -467,12 +467,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>QTE</t>
+          <t>QUANTITE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TTC</t>
+          <t>MONTANT TTC</t>
         </is>
       </c>
     </row>
@@ -497,37 +497,37 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BURG0001</t>
+          <t>BAH022</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BURGER 100% VIANDE / PACK OF 2</t>
+          <t>BEEF FILET/ FILET DE ZEBU</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>13.5</v>
+        <v>13.556</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>736235.99</v>
+        <v>776216.5600000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BAH022</t>
+          <t>BURG0001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>BEEF FILET/ FILET DE ZEBU</t>
+          <t>BURGER 100% VIANDE / PACK OF 2</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>12.826</v>
+        <v>13.76</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>734416.76</v>
+        <v>750415.35</v>
       </c>
     </row>
     <row r="5">
@@ -551,37 +551,37 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BLPCG001</t>
+          <t>BAF008</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BLANC DE POULET CONGELE</t>
+          <t>RIBEYE / ENTRECOTE</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>23.282</v>
+        <v>12.848</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>675178</v>
+        <v>713192.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BAF008</t>
+          <t>BLPCG001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>RIBEYE / ENTRECOTE</t>
+          <t>BLANC DE POULET CONGELE</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>10.458</v>
+        <v>23.282</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>580523.58</v>
+        <v>675178</v>
       </c>
     </row>
     <row r="8">
@@ -641,37 +641,37 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BEESK001</t>
+          <t>MERL0001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BEEF SKEWERS - 100% FILET - PREMIUM</t>
+          <t xml:space="preserve"> LAMB MERGUEZ / MERGUEZ D'AGNEAU </t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>5.84</v>
+        <v>6.302</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>365058.4</v>
+        <v>383665.76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>MERL0001</t>
+          <t>BEESK001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAMB MERGUEZ / MERGUEZ D'AGNEAU </t>
+          <t>BEEF SKEWERS - 100% FILET - PREMIUM</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>5.972</v>
+        <v>5.84</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>363575.36</v>
+        <v>365058.4</v>
       </c>
     </row>
     <row r="13">
@@ -803,109 +803,109 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>GOAR0002</t>
+          <t>CUPCG001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>GOAT RIB / COTE DE CHEVRE</t>
+          <t>CUISSE ENTIÈRE DE POULET CONGELE</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>2.814</v>
+        <v>6.61</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>154910.7</v>
+        <v>165250</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>PLPCG001</t>
+          <t>GOAR0002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>PILON CONGELE</t>
+          <t>GOAT RIB / COTE DE CHEVRE</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>6.016</v>
+        <v>2.814</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>150400</v>
+        <v>154910.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>HCPCG001</t>
+          <t>BOUC0001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>HAUT DE CUISSE CONGELE</t>
+          <t xml:space="preserve"> BOURGUIGNON CUBE</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>5.612</v>
+        <v>3.88</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>140300</v>
+        <v>153337.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>CUPCG001</t>
+          <t>PLPCG001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CUISSE ENTIÈRE DE POULET CONGELE</t>
+          <t>PILON CONGELE</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>5.558</v>
+        <v>6.016</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>138950</v>
+        <v>150400</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>ALPCG001</t>
+          <t>HCPCG001</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>AILES DE POULET CONGELE</t>
+          <t>HAUT DE CUISSE CONGELE</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>5.626</v>
+        <v>5.612</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>137837</v>
+        <v>140300</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BOUC0001</t>
+          <t>ALPCG001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOURGUIGNON CUBE</t>
+          <t>AILES DE POULET CONGELE</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>3.472</v>
+        <v>5.626</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>137213.44</v>
+        <v>137837</v>
       </c>
     </row>
     <row r="26">
@@ -947,55 +947,55 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>FOICG001</t>
+          <t>GOAS0001</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>FOIE CONGELE</t>
+          <t>GOAT STEW / CHEVRE CUBE AVEC OS</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>4.558</v>
+        <v>1.952</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>79765</v>
+        <v>96477.60000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>RUMT0001</t>
+          <t>FOICG001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>RUMP TAIL / AIGUILLETTE</t>
+          <t>FOIE CONGELE</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>1.204</v>
+        <v>5.492</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>79328.56</v>
+        <v>96110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>GOAS0001</t>
+          <t>RUMT0001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>GOAT STEW / CHEVRE CUBE AVEC OS</t>
+          <t>RUMP TAIL / AIGUILLETTE</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>1.554</v>
+        <v>1.204</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>76806.45</v>
+        <v>79328.56</v>
       </c>
     </row>
     <row r="31">
@@ -1199,145 +1199,145 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>JMBVOL04</t>
+          <t>MERC0001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>JAMBON DE VOLLAILE MALAGASY CONGELE</t>
+          <t>MERGUEZ CONGELE</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>1.074</v>
+        <v>1.292</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>35979</v>
+        <v>38760</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BEER0001</t>
+          <t>JMBVOL04</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>BEEF RIBS / PLAT DE COTE</t>
+          <t>JAMBON DE VOLLAILE MALAGASY CONGELE</t>
         </is>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.074</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>35696.7</v>
+        <v>35979</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>PEFR0001</t>
+          <t>BEER0001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>POULET ENTIER FRAIS</t>
+          <t>BEEF RIBS / PLAT DE COTE</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>1.34</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>33768</v>
+        <v>35696.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>SACHET_0</t>
+          <t>PEFR0001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>PLASTIC BAGS</t>
+          <t>POULET ENTIER FRAIS</t>
         </is>
       </c>
       <c r="C45" s="3" t="n">
-        <v>40</v>
+        <v>1.34</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>20000</v>
+        <v>33768</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BRIA0001</t>
+          <t>BEES0001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>AMERICAN BRISKET</t>
+          <t>BEEF STRIRFY / EMINCE DE ZEBU</t>
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>0.322</v>
+        <v>0.708</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>15790.88</v>
+        <v>29130.66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BAH005</t>
+          <t>SACHET_0</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>TOPSIDE / GITE DE ZEBU</t>
+          <t>PLASTIC BAGS</t>
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.352</v>
+        <v>41</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>15597.12</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BEES0001</t>
+          <t>BRIA0001</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>BEEF STRIRFY / EMINCE DE ZEBU</t>
+          <t>AMERICAN BRISKET</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.354</v>
+        <v>0.322</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>14565.33</v>
+        <v>15790.88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>MERC0001</t>
+          <t>BAH005</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>MERGUEZ CONGELE</t>
+          <t>TOPSIDE / GITE DE ZEBU</t>
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0.43</v>
+        <v>0.352</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>12900</v>
+        <v>15597.12</v>
       </c>
     </row>
     <row r="50">
@@ -1348,10 +1348,10 @@
       </c>
       <c r="B50" s="5" t="n"/>
       <c r="C50" s="5" t="n">
-        <v>283.466</v>
+        <v>292.184</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>10060908.79</v>
+        <v>10389012.89</v>
       </c>
     </row>
   </sheetData>
